--- a/biology/Zoologie/Eukoenenia_zariquieyi/Eukoenenia_zariquieyi.xlsx
+++ b/biology/Zoologie/Eukoenenia_zariquieyi/Eukoenenia_zariquieyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia zariquieyi est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Catalogne en Espagne[1]. Elle se rencontre dans la grotte Cueva del Salitre à Collbató dans le Montserrat[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Catalogne en Espagne. Elle se rencontre dans la grotte Cueva del Salitre à Collbató dans le Montserrat.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 1,5 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 1,5 mm.
 C'est une espèce troglobie.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ricardo Zariquiey Álvarez (1897-1965)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ricardo Zariquiey Álvarez (1897-1965).
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Eukoenenia draco zariquieyi a été élevée au rang d'espèce par Mayoral et Barranco en 2013[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Eukoenenia draco zariquieyi a été élevée au rang d'espèce par Mayoral et Barranco en 2013.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Condé, 1951 : Une Koenenia cavernicole du Montserrat (Catalogne). (Arachnides Palpigrades). Revue Française d'Entomologie, vol. 18, p. 42-45.</t>
         </is>
